--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AD/10/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AD/10/seed4/result_data_RandomForest.xlsx
@@ -556,7 +556,7 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.934600000000001</v>
+        <v>-7.8169</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.8957</v>
+        <v>-21.8093</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.228499999999996</v>
+        <v>-7.057399999999994</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.25400000000001</v>
+        <v>-22.17370000000001</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-19.49579999999999</v>
+        <v>-19.40079999999999</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -879,7 +879,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-8.574500000000002</v>
+        <v>-8.517900000000003</v>
       </c>
       <c r="E26" t="n">
         <v>13.83</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-22.0714</v>
+        <v>-21.93289999999999</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -896,7 +896,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.833099999999998</v>
+        <v>-8.824199999999998</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -930,7 +930,7 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.405800000000003</v>
+        <v>-7.269799999999998</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -1066,7 +1066,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-7.635399999999999</v>
+        <v>-7.500999999999997</v>
       </c>
       <c r="E37" t="n">
         <v>16.03</v>
@@ -1083,7 +1083,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-8.606900000000001</v>
+        <v>-8.272199999999996</v>
       </c>
       <c r="E38" t="n">
         <v>15.23</v>
@@ -1304,7 +1304,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-7.632599999999999</v>
+        <v>-7.830999999999994</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1372,7 +1372,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.906399999999998</v>
+        <v>-8.877099999999997</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.59219999999999</v>
+        <v>-21.65919999999999</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1610,7 +1610,7 @@
         <v>-10.8</v>
       </c>
       <c r="D69" t="n">
-        <v>-7.247999999999995</v>
+        <v>-7.097999999999993</v>
       </c>
       <c r="E69" t="n">
         <v>17.51</v>
@@ -1627,7 +1627,7 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-7.527499999999995</v>
+        <v>-7.612099999999995</v>
       </c>
       <c r="E70" t="n">
         <v>17.62</v>
@@ -1720,7 +1720,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-19.97659999999999</v>
+        <v>-19.72449999999998</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.9124</v>
+        <v>-21.86790000000001</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1848,7 +1848,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-9.007600000000002</v>
+        <v>-8.9481</v>
       </c>
       <c r="E83" t="n">
         <v>16.38</v>
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.7662</v>
+        <v>-7.672099999999995</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
